--- a/JavaChallenges.xlsx
+++ b/JavaChallenges.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>题目名称</t>
   </si>
@@ -41,9 +41,6 @@
     <t>wp</t>
   </si>
   <si>
-    <t>我是否复现</t>
-  </si>
-  <si>
     <t>HFCTF2022-ezchain</t>
   </si>
   <si>
@@ -216,6 +213,36 @@
   </si>
   <si>
     <t>邑网杯2025-DeSpring</t>
+  </si>
+  <si>
+    <t>HDCTF2023-BabyJxVx</t>
+  </si>
+  <si>
+    <t>scxml2 xxe</t>
+  </si>
+  <si>
+    <t>https://zer0peach.github.io/2024/03/22/Apache-SCXML2-RCE/</t>
+  </si>
+  <si>
+    <t>ISCTF2025-Regretful_Deser</t>
+  </si>
+  <si>
+    <t>https://xz.aliyun.com/news/90777</t>
+  </si>
+  <si>
+    <t>ISCTF2025-load_jvav</t>
+  </si>
+  <si>
+    <t>二次反序列化</t>
+  </si>
+  <si>
+    <t>AliyunCTF2026-staircase</t>
+  </si>
+  <si>
+    <t>AliyunCTF2026-fileury</t>
+  </si>
+  <si>
+    <t>AliyunCTF2026-MHGA</t>
   </si>
 </sst>
 </file>
@@ -228,7 +255,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,24 +264,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,159 +711,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1163,21 +1185,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="39.25" customWidth="1"/>
     <col min="2" max="2" width="83.5" customWidth="1"/>
-    <col min="3" max="3" width="30.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="56.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,309 +1209,323 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>61</v>
       </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A45" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A48" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C46" r:id="rId1" display="https://zer0peach.github.io/2024/03/22/Apache-SCXML2-RCE/"/>
+    <hyperlink ref="C48" r:id="rId2" display="https://xz.aliyun.com/news/90777"/>
+    <hyperlink ref="C47" r:id="rId2" display="https://xz.aliyun.com/news/90777"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/JavaChallenges.xlsx
+++ b/JavaChallenges.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="20050" windowHeight="10840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>题目名称</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>AliyunCTF2026-MHGA</t>
+  </si>
+  <si>
+    <t>L3HCTF2025-TellMeWhy</t>
+  </si>
+  <si>
+    <t>fastjson2利用，solon内存马</t>
+  </si>
+  <si>
+    <t>https://dummykitty.github.io/posts/L3HCTF-2025-TellMeWhy-Fastjson-%E9%AB%98%E7%89%88%E6%9C%AC-Getter-%E5%88%A9%E7%94%A8/</t>
   </si>
 </sst>
 </file>
@@ -856,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -866,6 +875,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1185,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1517,14 +1527,26 @@
         <v>70</v>
       </c>
     </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A48" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A51" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="C46" r:id="rId1" display="https://zer0peach.github.io/2024/03/22/Apache-SCXML2-RCE/"/>
     <hyperlink ref="C48" r:id="rId2" display="https://xz.aliyun.com/news/90777"/>
     <hyperlink ref="C47" r:id="rId2" display="https://xz.aliyun.com/news/90777"/>
+    <hyperlink ref="C52" r:id="rId3" display="https://dummykitty.github.io/posts/L3HCTF-2025-TellMeWhy-Fastjson-%E9%AB%98%E7%89%88%E6%9C%AC-Getter-%E5%88%A9%E7%94%A8/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
